--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
@@ -19,16 +19,10 @@
     <t>time</t>
   </si>
   <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>2023-02-12T00:02:24.692Z</t>
-  </si>
-  <si>
     <t>Son Tung</t>
   </si>
   <si>
-    <t>2023-02-12T00:02:31.769Z</t>
+    <t>2023-02-15T03:48:37.116Z</t>
   </si>
 </sst>
 </file>
@@ -405,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -424,14 +418,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
